--- a/PANAMÁ/Delitos/Informe-Estadistico-Victimas-de-Femicidio-a-Nivel-Nacional-2018-2019-2020.xlsx
+++ b/PANAMÁ/Delitos/Informe-Estadistico-Victimas-de-Femicidio-a-Nivel-Nacional-2018-2019-2020.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AAEC95-0706-423D-A036-711CD6AD1438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D28DD-2961-4E71-8F90-AA2F3D85C9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
-    <sheet name="Delitos de género por Á.Geográf" sheetId="7" r:id="rId2"/>
-    <sheet name="Delitos de género por rango eda" sheetId="8" r:id="rId3"/>
-    <sheet name="Delitos de género por tipo arma" sheetId="9" r:id="rId4"/>
-    <sheet name="(Original) Var% por área geo" sheetId="4" r:id="rId5"/>
-    <sheet name="Var% por área geo" sheetId="10" r:id="rId6"/>
-    <sheet name="(Original) Var% por delito" sheetId="5" r:id="rId7"/>
-    <sheet name="Var% por delito" sheetId="11" r:id="rId8"/>
+    <sheet name="(Original) Núm. Vi por área geo" sheetId="4" r:id="rId1"/>
+    <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId2"/>
+    <sheet name="Delitos de género por Á.Geográf" sheetId="7" r:id="rId3"/>
+    <sheet name="Delitos de género por rango eda" sheetId="8" r:id="rId4"/>
+    <sheet name="Delitos de género por tipo arma" sheetId="9" r:id="rId5"/>
+    <sheet name="Núm. Vic por área geo" sheetId="10" r:id="rId6"/>
+    <sheet name="(Original) Núm. Vic por delito" sheetId="5" r:id="rId7"/>
+    <sheet name="Núm. Vic por delito" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>ENERO</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>FEBRERO</t>
@@ -1442,21 +1439,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1514,646 +1496,26 @@
     <xf numFmtId="1" fontId="20" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="76">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF001F5F"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2837,6 +2199,596 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF001F5F"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -3820,6 +3772,51 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3845,6 +3842,127 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8688705" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Shape 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8688705" cy="9525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="8688705" h="9525">
+              <a:moveTo>
+                <a:pt x="8688324" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="9144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8688324" y="9144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8688324" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>622498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8688705" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230BCCF7-BF1E-4B3E-8ADB-5F3B2E837E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="936823"/>
+          <a:ext cx="8688705" cy="9525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="8688705" h="9525">
+              <a:moveTo>
+                <a:pt x="8688324" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="9144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8688324" y="9144"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8688324" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3943,7 +4061,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4042,7 +4160,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4147,7 +4265,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4339,127 +4457,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8688705" cy="9525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Shape 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8688705" cy="9525"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="8688705" h="9525">
-              <a:moveTo>
-                <a:pt x="8688324" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="9144"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="8688324" y="9144"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="8688324" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>622498</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8688705" cy="9525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230BCCF7-BF1E-4B3E-8ADB-5F3B2E837E09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="936823"/>
-          <a:ext cx="8688705" cy="9525"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="8688705" h="9525">
-              <a:moveTo>
-                <a:pt x="8688324" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="9144"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="8688324" y="9144"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="8688324" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4806,16 +4803,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4830,7 +4827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086100" y="1257300"/>
+          <a:off x="3209925" y="381000"/>
           <a:ext cx="6877050" cy="2343150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4908,6 +4905,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:T15" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56">
+  <autoFilter ref="A1:T15" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A99F51E-3125-41F6-8A55-C40B4DACABE3}" name="Femicidio_Mes_Panama" displayName="Femicidio_Mes_Panama" ref="A1:E37" totalsRowShown="0">
   <autoFilter ref="A1:E37" xr:uid="{7F0E5435-7C5E-4A00-B708-F5EDBE512978}"/>
   <tableColumns count="5">
@@ -4921,26 +4947,26 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:E37" totalsRowShown="0" dataDxfId="21">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:E37" totalsRowShown="0" dataDxfId="71">
   <autoFilter ref="A1:E37" xr:uid="{2EA9E4BD-48B9-4B8E-A7DD-088EA5AEF36B}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{CCDB4D91-9A45-48DF-A0FA-5DCF5DF285EE}" name="Año" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CCDB4D91-9A45-48DF-A0FA-5DCF5DF285EE}" name="Año" dataDxfId="70"/>
     <tableColumn id="1" xr3:uid="{7E65EC75-9A72-4E83-9425-CF9E8C705E39}" name="ÁREA GEOGRÁFICA"/>
-    <tableColumn id="2" xr3:uid="{6EA7E6C7-2CAE-436F-AE99-7149530B9CE2}" name="FEMICIDIO" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5DE92C80-CDA4-4E3F-9F66-78CB8AAA0EB0}" name="TENTATIVA DE FEMICIDIO" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{58314958-DB7B-4241-B40D-E8C58B1D375C}" name="MUERTE VIOLENTA_x000a_(1)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6EA7E6C7-2CAE-436F-AE99-7149530B9CE2}" name="FEMICIDIO" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{5DE92C80-CDA4-4E3F-9F66-78CB8AAA0EB0}" name="TENTATIVA DE FEMICIDIO" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{58314958-DB7B-4241-B40D-E8C58B1D375C}" name="MUERTE VIOLENTA_x000a_(1)" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:E55" totalsRowShown="0" headerRowDxfId="71">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:E55" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A1:E55" xr:uid="{E566C7E3-FD90-466E-86ED-C27832F22AD8}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="70"/>
-    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{469503C1-5C93-4AE2-AC57-07C6D3ECBF1F}" name="Femicidio"/>
     <tableColumn id="3" xr3:uid="{C2D77640-DA58-4E3C-B3BA-1537700F86B4}" name="Tentativa de Femicidio"/>
     <tableColumn id="4" xr3:uid="{93522E50-6ADE-4BB2-B1DA-CD298CB14F40}" name="Muerte Violenta (1)"/>
@@ -4949,97 +4975,68 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:E20" totalsRowShown="0" tableBorderDxfId="68">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:E20" totalsRowShown="0" tableBorderDxfId="63">
   <autoFilter ref="A1:E20" xr:uid="{FC14A289-1D97-415E-BE92-4B62D4ED45E0}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="67"/>
-    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Femicidio" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{44F57FBA-CD6F-4004-8ADC-5851226E5DA4}" name="Tentativa de Femicidio" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{E73FA3C0-F46C-443F-B45B-5F46CE404DB2}" name="Muerte Violenta (1)" dataDxfId="63"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:T15" totalsRowShown="0" headerRowBorderDxfId="62" tableBorderDxfId="61">
-  <autoFilter ref="A1:T15" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="43"/>
-    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="42"/>
-    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Femicidio" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{44F57FBA-CD6F-4004-8ADC-5851226E5DA4}" name="Tentativa de Femicidio" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{E73FA3C0-F46C-443F-B45B-5F46CE404DB2}" name="Muerte Violenta (1)" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O17" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O17" totalsRowShown="0" headerRowBorderDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="A1:O17" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:T4" totalsRowShown="0" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:T4" totalsRowShown="0" tableBorderDxfId="18">
   <autoFilter ref="A1:T4" xr:uid="{A70A87EF-2056-4CC1-B503-2E0715282851}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{E1769EFD-17E2-4E3F-B6D3-DF00A27783B3}" name="TOTAL  2019 (1)"/>
     <tableColumn id="19" xr3:uid="{E4421AC0-B602-41AE-B521-7AE18126086A}" name="TOTAL  2020 (1)"/>
-    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5365,2428 +5362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698F57B-D304-44AB-81A4-453666973153}">
-  <dimension ref="A1:F42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="12">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="12">
-        <v>3</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="12">
-        <v>4</v>
-      </c>
-      <c r="D25" s="12">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="12">
-        <v>2</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="12">
-        <v>3</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
-        <v>4</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12">
-        <v>2</v>
-      </c>
-      <c r="E34" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="12">
-        <v>3</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="12">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12">
-        <v>2</v>
-      </c>
-      <c r="E36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="12">
-        <v>2</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3280BD-BD4F-4A28-A7A2-C9A890461113}">
-  <dimension ref="A1:F42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="12">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="12">
-        <v>4</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="12">
-        <v>9</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="12">
-        <v>6</v>
-      </c>
-      <c r="D24" s="12">
-        <v>5</v>
-      </c>
-      <c r="E24" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="12">
-        <v>4</v>
-      </c>
-      <c r="D28" s="12">
-        <v>3</v>
-      </c>
-      <c r="E28" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>4</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="12">
-        <v>9</v>
-      </c>
-      <c r="D34" s="12">
-        <v>4</v>
-      </c>
-      <c r="E34" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="12">
-        <v>2</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="12">
-        <v>2</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC011F-41EC-4073-9F52-F81E6101A8E8}">
-  <dimension ref="A1:G59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="12">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="12">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="12">
-        <v>4</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="12">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
-        <v>2019</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2</v>
-      </c>
-      <c r="E37" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12">
-        <v>2</v>
-      </c>
-      <c r="E42" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="12">
-        <v>2</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="12">
-        <v>4</v>
-      </c>
-      <c r="D44" s="12">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="12">
-        <v>5</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="12">
-        <v>4</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="12">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12">
-        <v>4</v>
-      </c>
-      <c r="E55" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65406B-7E14-474A-AA8A-3E4015B0B501}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="12">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="12">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="12">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="12">
-        <v>7</v>
-      </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8766,100 +6346,100 @@
       <c r="T16" s="17"/>
     </row>
     <row r="17" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
+      <c r="A17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
     </row>
     <row r="19" spans="1:20" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
     </row>
     <row r="20" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8876,12 +6456,2427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698F57B-D304-44AB-81A4-453666973153}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="12">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="12">
+        <v>3</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>4</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3280BD-BD4F-4A28-A7A2-C9A890461113}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="12">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="12">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="12">
+        <v>9</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC011F-41EC-4073-9F52-F81E6101A8E8}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="12">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="12">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="12">
+        <v>4</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="12">
+        <v>5</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="12">
+        <v>4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12">
+        <v>4</v>
+      </c>
+      <c r="E55" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65406B-7E14-474A-AA8A-3E4015B0B501}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="12">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="12">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="12">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9EB245-D6C1-434C-B526-7ACFA850B1CD}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8905,53 +8900,53 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -8998,7 +8993,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -9045,7 +9040,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -9092,7 +9087,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -9139,7 +9134,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -9186,7 +9181,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
@@ -9233,7 +9228,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -9280,7 +9275,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -9327,7 +9322,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -9374,7 +9369,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -9421,7 +9416,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -9468,7 +9463,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -9515,7 +9510,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B14">
@@ -9562,7 +9557,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -9609,7 +9604,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B16">
@@ -9656,7 +9651,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B17">
@@ -9732,8 +9727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10031,100 +10026,100 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
+      <c r="A6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:20" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10146,7 +10141,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10174,240 +10169,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="46">
         <v>2</v>
       </c>
-      <c r="C2" s="52">
-        <v>0</v>
-      </c>
-      <c r="D2" s="53">
+      <c r="C2" s="47">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="46">
         <v>10</v>
       </c>
-      <c r="C3" s="52">
-        <v>0</v>
-      </c>
-      <c r="D3" s="53">
+      <c r="C3" s="47">
+        <v>0</v>
+      </c>
+      <c r="D3" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="46">
         <v>3</v>
       </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="53">
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="53">
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="46">
         <v>2</v>
       </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="53">
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="46">
         <v>2</v>
       </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51">
-        <v>1</v>
-      </c>
-      <c r="C8" s="52">
-        <v>1</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
-      <c r="C9" s="52">
-        <v>1</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="C9" s="47">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="46">
         <v>3</v>
       </c>
-      <c r="C10" s="52">
-        <v>0</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+      <c r="D10" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="51">
-        <v>1</v>
-      </c>
-      <c r="C11" s="52">
-        <v>1</v>
-      </c>
-      <c r="D11" s="53">
+      <c r="B11" s="46">
+        <v>1</v>
+      </c>
+      <c r="C11" s="47">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="51">
-        <v>1</v>
-      </c>
-      <c r="C12" s="52">
+      <c r="B12" s="46">
+        <v>1</v>
+      </c>
+      <c r="C12" s="47">
         <v>3</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="51">
-        <v>0</v>
-      </c>
-      <c r="C13" s="52">
-        <v>0</v>
-      </c>
-      <c r="D13" s="53">
+      <c r="B13" s="46">
+        <v>0</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="46">
         <v>2</v>
       </c>
-      <c r="C14" s="52">
-        <v>0</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="C14" s="47">
+        <v>0</v>
+      </c>
+      <c r="D14" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="46">
         <v>6</v>
       </c>
-      <c r="C15" s="52">
-        <v>0</v>
-      </c>
-      <c r="D15" s="53">
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="51">
-        <v>0</v>
-      </c>
-      <c r="C16" s="52">
-        <v>1</v>
-      </c>
-      <c r="D16" s="53">
+      <c r="B16" s="46">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="51">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52">
-        <v>0</v>
-      </c>
-      <c r="D17" s="53">
+      <c r="B17" s="46">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="48">
         <v>2</v>
       </c>
     </row>
